--- a/data_beasiswa.xlsx
+++ b/data_beasiswa.xlsx
@@ -2,21 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2295" yWindow="2295" windowWidth="12705" windowHeight="13305" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Buku" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Anggota" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Peminjaman" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Pengembalian" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="siswa" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Beasiswa" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Beasiswa" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="siswa" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -56,7 +51,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -421,7 +416,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -437,23 +432,30 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18.5703125" customWidth="1" min="1" max="1"/>
+    <col width="10.7109375" customWidth="1" min="2" max="2"/>
+    <col width="19.140625" customWidth="1" min="3" max="3"/>
+    <col width="19.5703125" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Kode Buku</t>
+          <t>Kode Beasiswa</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Judul Buku</t>
+          <t>Judul Beasiswa</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -463,17 +465,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Jenis Buku</t>
+          <t>Jenis Beasiswa</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Nomor Buku</t>
+          <t>Nomor Beasiswa</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Jumlah Buku</t>
+          <t>Jumlah Beasiswa</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -485,22 +487,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>J03001</t>
+          <t>B01001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cara Mendapatkan Secret</t>
+          <t xml:space="preserve">KIP </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sauqi</t>
+          <t>PEMERINTAH</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Buku Komputer</t>
+          <t>Beasiswa Negara</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -508,115 +510,12 @@
           <t>001</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>Tersedia</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>J01234</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cara Mendapatkan Secret</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sauqi</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Buku Sains</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Tersedia</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>J02002</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sang Pahlawan</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LiyaSA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Buku Cerita</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Tersedia</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>J03003</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Kembali Sang Pewaris</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Jungholin</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Buku Komputer</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>003</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>Tersedia</t>
         </is>
@@ -628,231 +527,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>No Anggota</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Nama Anggota</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>No HP</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Alamat</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>LIA SAADAH</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>085222505670</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CIKAUM</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TIARA DEWI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>08775633210</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MAJASARI</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>No Anggota</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Kode Buku</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Tanggal Pinjam</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>No Anggota</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Kode Buku</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Tanggal Kembali</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>007</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>J02001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-11-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>007</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>J01001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-11-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>J01234</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-11-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>J02002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-11-12</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -891,78 +565,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10603005</t>
+          <t>101010001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIF </t>
+          <t>GHIYSA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08909456</t>
+          <t>987997999</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CIANJUR</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Kode Beasiswa</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Judul Beasiswa</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Pengarang</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Jenis Beasiswa</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Nomor Beasiswa</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Jumlah Beasiswa</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Status</t>
+          <t>CIKADUNG</t>
         </is>
       </c>
     </row>
